--- a/BOM/MainBoard.xlsx
+++ b/BOM/MainBoard.xlsx
@@ -5,27 +5,24 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csml\Documents\dev\Electronics-MainBoard\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YJ Kim\Documents\dev\Electronics-MainBoard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
   </bookViews>
   <sheets>
     <sheet name="MainBoard" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MainBoard!$A$5:$G$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MainBoard!$A$4:$G$48</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="134">
-  <si>
-    <t>Generated</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="148">
   <si>
     <t>Total Parts</t>
   </si>
@@ -57,7 +54,10 @@
     <t xml:space="preserve">C6 C7 C8 C9 </t>
   </si>
   <si>
-    <t>Capacitors_SMD:c_elec_6.3x4.5</t>
+    <t>220uF/25V</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:CP_Elec_8x10</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -69,16 +69,19 @@
     <t>10uF/25V</t>
   </si>
   <si>
-    <t>Capacitors_SMD:C_1206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2 </t>
+    <t>footprint:c_1206</t>
+  </si>
+  <si>
+    <t>445-8867-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2 C20 C23 C24 </t>
   </si>
   <si>
     <t>0.1uF</t>
   </si>
   <si>
-    <t>Capacitors_SMD:C_0603</t>
+    <t>footprint:c_0603</t>
   </si>
   <si>
     <t xml:space="preserve">C3 </t>
@@ -93,13 +96,16 @@
     <t>10nF</t>
   </si>
   <si>
-    <t xml:space="preserve">C5 </t>
+    <t xml:space="preserve">C5 C21 </t>
   </si>
   <si>
     <t>22uF/10V</t>
   </si>
   <si>
-    <t>Capacitors_SMD:C_0805</t>
+    <t>footprint:c_0805</t>
+  </si>
+  <si>
+    <t>1276-6786-1-ND</t>
   </si>
   <si>
     <t xml:space="preserve">C10 C11 </t>
@@ -111,13 +117,25 @@
     <t xml:space="preserve">C12 </t>
   </si>
   <si>
-    <t xml:space="preserve">C17 C18 C15 C16 </t>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17 C18 C15 C16 C22 </t>
   </si>
   <si>
     <t xml:space="preserve">C13 C14 </t>
   </si>
   <si>
-    <t>33uF</t>
+    <t>33pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19 </t>
+  </si>
+  <si>
+    <t>220uF/10V</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:CP_Elec_6.3x5.8</t>
   </si>
   <si>
     <t xml:space="preserve">D1 D2 D3 D4 </t>
@@ -129,13 +147,16 @@
     <t>LEDs:LED_0805</t>
   </si>
   <si>
+    <t>160-1426-1-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">J1 </t>
   </si>
   <si>
     <t>DB25</t>
   </si>
   <si>
-    <t>Connect:DB25FC</t>
+    <t>footprint:DB_25M</t>
   </si>
   <si>
     <t xml:space="preserve">L1 </t>
@@ -147,6 +168,9 @@
     <t>footprint:ASPI-0630LR</t>
   </si>
   <si>
+    <t>ASPI-0630LR-100M-T15CT-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">P1 </t>
   </si>
   <si>
@@ -156,7 +180,7 @@
     <t>Socket_Strips:Socket_Strip_Straight_1x02</t>
   </si>
   <si>
-    <t xml:space="preserve">P2 P17 </t>
+    <t xml:space="preserve">P2 </t>
   </si>
   <si>
     <t>CONN_01X04</t>
@@ -165,22 +189,7 @@
     <t>Connectors_JST:JST_XH_B04B-XH-A_04x2.50mm_Straight</t>
   </si>
   <si>
-    <t xml:space="preserve">P4 P5 P6 P7 </t>
-  </si>
-  <si>
-    <t>HOLE</t>
-  </si>
-  <si>
-    <t>Connect:1pin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3 </t>
-  </si>
-  <si>
-    <t>CONN_01X05</t>
-  </si>
-  <si>
-    <t>Connectors_JST:JST_XH_B05B-XH-A_05x2.50mm_Straight</t>
+    <t>455-2249-ND</t>
   </si>
   <si>
     <t xml:space="preserve">P8 P14 </t>
@@ -207,13 +216,13 @@
     <t>Socket_Strips:Socket_Strip_Straight_2x07</t>
   </si>
   <si>
-    <t xml:space="preserve">P16 </t>
-  </si>
-  <si>
-    <t>CONN_02X05</t>
-  </si>
-  <si>
-    <t>Socket_Strips:Socket_Strip_Straight_2x05</t>
+    <t xml:space="preserve">P16 P3 </t>
+  </si>
+  <si>
+    <t>CONN_02X04</t>
+  </si>
+  <si>
+    <t>Socket_Strips:Socket_Strip_Straight_2x04</t>
   </si>
   <si>
     <t xml:space="preserve">Q1 Q2 </t>
@@ -225,6 +234,9 @@
     <t>TO_SOT_Packages_SMD:SOT-23</t>
   </si>
   <si>
+    <t>BSS138CT-ND</t>
+  </si>
+  <si>
     <t>512-BSS138</t>
   </si>
   <si>
@@ -234,24 +246,30 @@
     <t>DMN65D8L</t>
   </si>
   <si>
+    <t>DMN65D8L-7DICT-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1 </t>
   </si>
   <si>
     <t>100k</t>
   </si>
   <si>
+    <t>footprint:r_0603</t>
+  </si>
+  <si>
     <t xml:space="preserve">R2 </t>
   </si>
   <si>
     <t>6.8k</t>
   </si>
   <si>
-    <t xml:space="preserve">R3 </t>
-  </si>
-  <si>
     <t>10k 1%</t>
   </si>
   <si>
+    <t>YAG2318CT-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">R4 </t>
   </si>
   <si>
@@ -261,7 +279,7 @@
     <t xml:space="preserve">R6 R7 R18 R19 </t>
   </si>
   <si>
-    <t xml:space="preserve">R11 R12 R5 R8 R9 R10 R14 R13 R16 R15 </t>
+    <t xml:space="preserve">R11 R5 R8 R9 R10 R14 R13 R16 R15 </t>
   </si>
   <si>
     <t>10k</t>
@@ -273,6 +291,27 @@
     <t>1k</t>
   </si>
   <si>
+    <t xml:space="preserve">R12 </t>
+  </si>
+  <si>
+    <t>0.003 %1</t>
+  </si>
+  <si>
+    <t>footprint:r_2512</t>
+  </si>
+  <si>
+    <t>CRE2512-FZ-R003E-3CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20 </t>
+  </si>
+  <si>
+    <t>3.3k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21 </t>
+  </si>
+  <si>
     <t xml:space="preserve">RN1 RN2 RN3 </t>
   </si>
   <si>
@@ -282,6 +321,9 @@
     <t>Resistors_SMD:R_Array_Concave_4x0603</t>
   </si>
   <si>
+    <t>742C083103JPCT-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">SW1 </t>
   </si>
   <si>
@@ -321,6 +363,9 @@
     <t>TO_SOT_Packages_SMD:SOT-223</t>
   </si>
   <si>
+    <t>296-28778-1-ND</t>
+  </si>
+  <si>
     <t>595-TLV1117LV33DCYR</t>
   </si>
   <si>
@@ -342,6 +387,9 @@
     <t>Housings_SSOP:TSSOP-28_4.4x9.7mm_Pitch0.65mm</t>
   </si>
   <si>
+    <t>568-5931-1-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">U9 </t>
   </si>
   <si>
@@ -360,6 +408,33 @@
     <t>SMD_Packages:SOIC-8-N</t>
   </si>
   <si>
+    <t>SI4425DDY-T1-GE3CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U11 </t>
+  </si>
+  <si>
+    <t>INA199A2</t>
+  </si>
+  <si>
+    <t>TO_SOT_Packages_SMD:SC-70-6</t>
+  </si>
+  <si>
+    <t>296-27331-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U12 </t>
+  </si>
+  <si>
+    <t>ADS1015</t>
+  </si>
+  <si>
+    <t>Housings_SSOP:MSOP-10_3x3mm_Pitch0.5mm</t>
+  </si>
+  <si>
+    <t>296-41185-1-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y1 </t>
   </si>
   <si>
@@ -369,31 +444,22 @@
     <t>footprint:crystal_maple</t>
   </si>
   <si>
-    <t>10uF</t>
+    <t>535-9720-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3 R22 </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>100uF</t>
+    <t>311-2584-1-ND</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>YAG2318CT-ND</t>
+    <t>311-2529-1-ND</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SI4425DDY-T1-GE3CT-ND</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMN65D8L-7DICT-ND</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSS138CT-ND</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASPI-0630LR-100M-T15CT-ND</t>
+    <t>30.1k 1%</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -401,47 +467,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>742C083103JPCT-ND</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>568-5931-1-ND</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>535-9720-1-ND</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>497-6288-ND</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>455-2270-ND</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>455-2249-ND</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>445-8867-1-ND</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>311-2584-1-ND</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>296-28778-1-ND</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>160-1426-1-ND</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1276-6786-1-ND</t>
+    <t>Vender</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1045,7 +1075,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="11" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1369,109 +1399,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="40.75" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="53.75" customWidth="1"/>
-    <col min="5" max="5" width="30.875" customWidth="1"/>
-    <col min="6" max="6" width="26.875" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="54.5" customWidth="1"/>
+    <col min="5" max="5" width="30.19921875" customWidth="1"/>
+    <col min="6" max="6" width="25.69921875" customWidth="1"/>
+    <col min="7" max="7" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
-        <v>42745</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1479,21 +1531,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -1502,44 +1554,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
@@ -1548,21 +1600,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
@@ -1571,252 +1623,252 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1163085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1824,44 +1876,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="2">
-        <v>30362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>12</v>
@@ -1870,64 +1922,64 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="2">
+        <v>34759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
@@ -1935,402 +1987,402 @@
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="2">
+        <v>19164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2">
+        <v>35827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2">
+      <c r="D30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2">
+        <v>8088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2">
+        <v>19159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2">
+        <v>34758</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2">
         <v>4</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2">
+        <v>6791</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="2">
+      <c r="C36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="2">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="2">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="2">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1077779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1077781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="2">
+        <v>6103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2">
+        <v>19211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="2">
         <v>4</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="2">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="2">
-        <v>6</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="2">
-        <v>4</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="C44" s="2">
         <v>330</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="2">
-        <v>10</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="2">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="2">
-        <v>4</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="2">
-        <v>5382</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G44" s="2">
+        <v>19220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>100</v>
       </c>
@@ -2349,16 +2401,88 @@
       <c r="F45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:G45">
-    <sortState ref="A6:G45">
-      <sortCondition descending="1" ref="E5:E45"/>
+  <autoFilter ref="A4:G48">
+    <sortState ref="A5:G48">
+      <sortCondition descending="1" ref="E4:E48"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
